--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/device_spec.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/device_spec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,91 +436,457 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>lang_code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>brand</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>model</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>deviceTypeCode</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">    minDriverversion
-</t>
+          <t>dtyp_code</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>min_driver_ver</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>descr</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>langCode</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>isActive</t>
+          <t>is_active</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>323</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ewwv</t>
-        </is>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>165</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Greenbit</t>
+          <t>Fingerprint Scanner</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DactyScan84c</t>
+          <t>Safran Morpho</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>1300 E2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>FRS</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>To capture eng</t>
-        </is>
+      <c r="G2" t="n">
+        <v>1.12</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>To scan fingerprint</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
           <t>eng</t>
         </is>
       </c>
-      <c r="I2" t="b">
+      <c r="B3" t="n">
+        <v>165</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fingerprint Scanner</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Safran Morpho</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1300 E2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>FRS</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>To scan fingerprint</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>327</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>High Speed Dual Iris Scanner</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Cogent</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3M</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>IRS</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>To scan iris</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>327</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>High Speed Dual Iris Scanner</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Cogent</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3M</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>IRS</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>To scan iris</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>736</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Webcam</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Logitech</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>C270</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CMR</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.086</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>To capture photo</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>736</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Webcam</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Logitech</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>C270</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>CMR</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.086</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>To capture photo</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>801</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>imageFORMULA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Canon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>DR-C130</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>SCN</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>To scan documents</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>801</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>imageFORMULA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Canon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>DR-C130</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>SCN</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>To scan documents</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>920</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Single Function Inkjet</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Canon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>TS207</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>PRT</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.123</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>To print documents</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>920</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Single Function Inkjet</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Canon</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>TS207</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>PRT</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.123</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>To print documents</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
         <v>1</v>
       </c>
     </row>

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/device_spec.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/device_spec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,93 +434,489 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>lang_code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>brand</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>model</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>deviceTypeCode</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    minDriverversion
-</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>dtyp_code</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>min_driver_ver</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>descr</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>langCode</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>isActive</t>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>is_active</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>323</v>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ewwv</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Greenbit</t>
-        </is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>165</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DactyScan84c</t>
+          <t>Fingerprint Scanner</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Safran Morpho</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1300 E2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>FRS</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>To capture eng</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>To scan fingerprint</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>eng</t>
         </is>
       </c>
-      <c r="I2" t="b">
+      <c r="C3" t="n">
+        <v>165</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fingerprint Scanner</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Safran Morpho</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1300 E2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>FRS</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>To scan fingerprint</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>327</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>High Speed Dual Iris Scanner</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Cogent</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3M</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>IRS</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>To scan iris</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>327</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>High Speed Dual Iris Scanner</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Cogent</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3M</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>IRS</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>To scan iris</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>736</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Webcam</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Logitech</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>C270</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>CMR</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2.086</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>To capture photo</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>736</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Webcam</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Logitech</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>C270</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>CMR</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2.086</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>To capture photo</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>801</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>imageFORMULA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Canon</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>DR-C130</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>SCN</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>To scan documents</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>801</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>imageFORMULA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Canon</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>DR-C130</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>SCN</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>To scan documents</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>920</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Single Function Inkjet</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Canon</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TS207</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>PRT</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1.123</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>To print documents</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>920</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Single Function Inkjet</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Canon</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>TS207</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>PRT</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1.123</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>To print documents</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
         <v>1</v>
       </c>
     </row>
